--- a/Thesis/Hasil Run Modif.xlsx
+++ b/Thesis/Hasil Run Modif.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
   <si>
     <t xml:space="preserve">Hasil x_k -- total gula k yang dibeli</t>
   </si>
@@ -181,16 +181,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -214,6 +216,15 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -231,6 +242,21 @@
       <c r="E4" s="1" t="n">
         <v>192648.583333333</v>
       </c>
+      <c r="G4" s="3" t="n">
+        <v>16546.39</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <f aca="false">C4*G4</f>
+        <v>4579714512.34383</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <f aca="false">G4*D4</f>
+        <v>6014383321.72533</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <f aca="false">G4*E4</f>
+        <v>3187638592.78083</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -248,6 +274,21 @@
       <c r="E5" s="1" t="n">
         <v>543385.3</v>
       </c>
+      <c r="G5" s="3" t="n">
+        <v>15503.97</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <f aca="false">C5*G5</f>
+        <v>7199854261.16649</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <f aca="false">G5*D5</f>
+        <v>8254369959.09099</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <f aca="false">G5*E5</f>
+        <v>8424629389.641</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -265,6 +306,21 @@
       <c r="E6" s="1" t="n">
         <v>90741.6666666666</v>
       </c>
+      <c r="G6" s="3" t="n">
+        <v>18110.24</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <f aca="false">C6*G6</f>
+        <v>645539504.8</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <f aca="false">G6*D6</f>
+        <v>369479079.733334</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <f aca="false">G6*E6</f>
+        <v>1643353361.33333</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -282,6 +338,21 @@
       <c r="E7" s="1" t="n">
         <v>56508.0500000001</v>
       </c>
+      <c r="G7" s="3" t="n">
+        <v>14716.74</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <f aca="false">C7*G7</f>
+        <v>3161310768.328</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <f aca="false">G7*D7</f>
+        <v>884826822.97</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <f aca="false">G7*E7</f>
+        <v>831614279.757001</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -299,6 +370,21 @@
       <c r="E8" s="1" t="n">
         <v>52957.5</v>
       </c>
+      <c r="G8" s="3" t="n">
+        <v>19800</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <f aca="false">C8*G8</f>
+        <v>582120000</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <f aca="false">G8*D8</f>
+        <v>334372500</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <f aca="false">G8*E8</f>
+        <v>1048558500</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -315,6 +401,21 @@
       </c>
       <c r="E9" s="1" t="n">
         <v>202852.5</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>15192.6</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <f aca="false">C9*G9</f>
+        <v>1793790282</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <f aca="false">G9*D9</f>
+        <v>2214941814.49999</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <f aca="false">G9*E9</f>
+        <v>3081856891.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -330,6 +431,18 @@
         <f aca="false">SUM(E4:E9)</f>
         <v>1139093.6</v>
       </c>
+      <c r="H10" s="3" t="n">
+        <f aca="false">SUM(H4:H9)</f>
+        <v>17962329328.6383</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <f aca="false">SUM(I4:I9)</f>
+        <v>18072373498.0197</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <f aca="false">SUM(J4:J9)</f>
+        <v>18217651015.0122</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
@@ -370,6 +483,18 @@
       <c r="F12" s="1" t="n">
         <v>6552.58333333337</v>
       </c>
+      <c r="H12" s="1" t="n">
+        <v>6552.58333333337</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>65295</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>81722</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>39079</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
@@ -390,6 +515,18 @@
       <c r="F13" s="1" t="n">
         <v>65295</v>
       </c>
+      <c r="H13" s="1" t="n">
+        <v>354839.3</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>23595</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>96122</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>68829</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
@@ -410,6 +547,18 @@
       <c r="F14" s="1" t="n">
         <v>81722</v>
       </c>
+      <c r="H14" s="1" t="n">
+        <v>41091.6666666666</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>26550</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>14400</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>8700</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
@@ -430,6 +579,18 @@
       <c r="F15" s="1" t="n">
         <v>39079</v>
       </c>
+      <c r="H15" s="1" t="n">
+        <v>33264.0500000001</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>18369</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>4666</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
@@ -450,6 +611,18 @@
       <c r="F16" s="1" t="n">
         <v>354839.3</v>
       </c>
+      <c r="H16" s="1" t="n">
+        <v>42607.5</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>10350</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
@@ -470,6 +643,18 @@
       <c r="F17" s="1" t="n">
         <v>23595</v>
       </c>
+      <c r="H17" s="1" t="n">
+        <v>70727.5</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>111075</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>21050</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
@@ -489,6 +674,22 @@
       </c>
       <c r="F18" s="1" t="n">
         <v>96122</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <f aca="false">SUM(H12:H17)</f>
+        <v>549082.6</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <f aca="false">SUM(I12:I17)</f>
+        <v>237074</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <f aca="false">SUM(J12:J17)</f>
+        <v>210613</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <f aca="false">SUM(K12:K17)</f>
+        <v>142324</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Thesis/Hasil Run Modif.xlsx
+++ b/Thesis/Hasil Run Modif.xlsx
@@ -184,14 +184,15 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="21.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.57"/>
   </cols>
   <sheetData>
@@ -243,19 +244,19 @@
         <v>192648.583333333</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>16546.39</v>
+        <v>0.7956</v>
       </c>
       <c r="H4" s="3" t="n">
         <f aca="false">C4*G4</f>
-        <v>4579714512.34383</v>
+        <v>220206.39342</v>
       </c>
       <c r="I4" s="3" t="n">
         <f aca="false">G4*D4</f>
-        <v>6014383321.72533</v>
+        <v>289189.56768</v>
       </c>
       <c r="J4" s="3" t="n">
         <f aca="false">G4*E4</f>
-        <v>3187638592.78083</v>
+        <v>153271.2129</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -275,19 +276,19 @@
         <v>543385.3</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>15503.97</v>
+        <v>1.9944</v>
       </c>
       <c r="H5" s="3" t="n">
         <f aca="false">C5*G5</f>
-        <v>7199854261.16649</v>
+        <v>926174.995079999</v>
       </c>
       <c r="I5" s="3" t="n">
         <f aca="false">G5*D5</f>
-        <v>8254369959.09099</v>
+        <v>1061825.80632</v>
       </c>
       <c r="J5" s="3" t="n">
         <f aca="false">G5*E5</f>
-        <v>8424629389.641</v>
+        <v>1083727.64232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -307,19 +308,19 @@
         <v>90741.6666666666</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>18110.24</v>
+        <v>0.0648</v>
       </c>
       <c r="H6" s="3" t="n">
         <f aca="false">C6*G6</f>
-        <v>645539504.8</v>
+        <v>2309.796</v>
       </c>
       <c r="I6" s="3" t="n">
         <f aca="false">G6*D6</f>
-        <v>369479079.733334</v>
+        <v>1322.028</v>
       </c>
       <c r="J6" s="3" t="n">
         <f aca="false">G6*E6</f>
-        <v>1643353361.33333</v>
+        <v>5880.06</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -339,19 +340,19 @@
         <v>56508.0500000001</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>14716.74</v>
+        <v>0.2952</v>
       </c>
       <c r="H7" s="3" t="n">
         <f aca="false">C7*G7</f>
-        <v>3161310768.328</v>
+        <v>63412.0694399999</v>
       </c>
       <c r="I7" s="3" t="n">
         <f aca="false">G7*D7</f>
-        <v>884826822.97</v>
+        <v>17748.5556</v>
       </c>
       <c r="J7" s="3" t="n">
         <f aca="false">G7*E7</f>
-        <v>831614279.757001</v>
+        <v>16681.17636</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -371,19 +372,19 @@
         <v>52957.5</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>19800</v>
+        <v>0.0288</v>
       </c>
       <c r="H8" s="3" t="n">
         <f aca="false">C8*G8</f>
-        <v>582120000</v>
+        <v>846.72</v>
       </c>
       <c r="I8" s="3" t="n">
         <f aca="false">G8*D8</f>
-        <v>334372500</v>
+        <v>486.36</v>
       </c>
       <c r="J8" s="3" t="n">
         <f aca="false">G8*E8</f>
-        <v>1048558500</v>
+        <v>1525.176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,19 +404,19 @@
         <v>202852.5</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>15192.6</v>
+        <v>0.4212</v>
       </c>
       <c r="H9" s="3" t="n">
         <f aca="false">C9*G9</f>
-        <v>1793790282</v>
+        <v>49731.084</v>
       </c>
       <c r="I9" s="3" t="n">
         <f aca="false">G9*D9</f>
-        <v>2214941814.49999</v>
+        <v>61407.0989999999</v>
       </c>
       <c r="J9" s="3" t="n">
         <f aca="false">G9*E9</f>
-        <v>3081856891.5</v>
+        <v>85441.473</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,15 +434,15 @@
       </c>
       <c r="H10" s="3" t="n">
         <f aca="false">SUM(H4:H9)</f>
-        <v>17962329328.6383</v>
+        <v>1262681.05794</v>
       </c>
       <c r="I10" s="3" t="n">
         <f aca="false">SUM(I4:I9)</f>
-        <v>18072373498.0197</v>
+        <v>1431979.4166</v>
       </c>
       <c r="J10" s="3" t="n">
         <f aca="false">SUM(J4:J9)</f>
-        <v>18217651015.0122</v>
+        <v>1346526.74058</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
